--- a/data/trans_dic/P23_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P23_R-Habitat-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4194338041600666</v>
+        <v>0.4210296544116876</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3473661934208899</v>
+        <v>0.3494497662180601</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3338611676095604</v>
+        <v>0.3340109672870744</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.205467244526382</v>
+        <v>0.2066985337050713</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.199551823276968</v>
+        <v>0.2022811530484033</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2192795529244287</v>
+        <v>0.2214870013765432</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3209160473714697</v>
+        <v>0.3245675814331809</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2837088020364163</v>
+        <v>0.282541111790701</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2887280781840797</v>
+        <v>0.2881365515066999</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4984927053180274</v>
+        <v>0.4990484230249369</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4240480171288122</v>
+        <v>0.4206110474275511</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4114474555116718</v>
+        <v>0.4085643038966584</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2671211430488352</v>
+        <v>0.2685602855831267</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.266421561120867</v>
+        <v>0.2670895378091424</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.289545029748922</v>
+        <v>0.2885237730815673</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3726806655658828</v>
+        <v>0.3747730371207682</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3356583224444362</v>
+        <v>0.3325726858136535</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.337650261770739</v>
+        <v>0.3376017232569981</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3903661770180277</v>
+        <v>0.3924219093700295</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3673230264010695</v>
+        <v>0.3673452145034813</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3040754051957479</v>
+        <v>0.3023276519626538</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2070934568468054</v>
+        <v>0.2085138796997213</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2534244259229135</v>
+        <v>0.251020830810768</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2324596907240454</v>
+        <v>0.23276725233721</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3080788246038022</v>
+        <v>0.304954599885855</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.317317045708837</v>
+        <v>0.3190592938722643</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2761373074612729</v>
+        <v>0.27382045089776</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4565145780651763</v>
+        <v>0.4606106062415923</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.431200810212662</v>
+        <v>0.4295934303474466</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3632965808293359</v>
+        <v>0.3647512228670966</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2613003287457177</v>
+        <v>0.2640435293176515</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3103866698934956</v>
+        <v>0.311201606821336</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2883962436804103</v>
+        <v>0.2879729815847988</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3534913956997645</v>
+        <v>0.3509856724554871</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3625595028652723</v>
+        <v>0.3640648870100465</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3179513209820011</v>
+        <v>0.3159962910335922</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3339970234399292</v>
+        <v>0.3354170419108037</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3779322481479724</v>
+        <v>0.3788560553252171</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3752001963324759</v>
+        <v>0.3763482150083723</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2160874817989034</v>
+        <v>0.215735350933913</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2615239167423789</v>
+        <v>0.2629845633198896</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2590578462862757</v>
+        <v>0.2586604807277921</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2876181026769896</v>
+        <v>0.2867060769078785</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3285918892056846</v>
+        <v>0.3289949830317248</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3226286997409406</v>
+        <v>0.3253987522960317</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4117107620221527</v>
+        <v>0.4160531593117192</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4523185424412167</v>
+        <v>0.4520374260105381</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4487834115064893</v>
+        <v>0.4491013083903592</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2841604543173117</v>
+        <v>0.2804345540674221</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3327536433676662</v>
+        <v>0.3294224209672453</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.322806086866774</v>
+        <v>0.3197919569339762</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3342537594935577</v>
+        <v>0.3372521644642045</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3786112877996913</v>
+        <v>0.3798334512064845</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3747771021562918</v>
+        <v>0.3772352497557493</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4013894951091677</v>
+        <v>0.3986464458059401</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3553009983466789</v>
+        <v>0.3524103761030844</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2772345395336055</v>
+        <v>0.278168561339841</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2668346626230007</v>
+        <v>0.2685080134819308</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2524727860927176</v>
+        <v>0.2524544313721075</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2188697697761981</v>
+        <v>0.2221102519082762</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3365372810102907</v>
+        <v>0.334604474848426</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3079952902830803</v>
+        <v>0.3096138613173255</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.253203221194175</v>
+        <v>0.2537628807180721</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4604539008621123</v>
+        <v>0.4618561642207566</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4226226533079465</v>
+        <v>0.4155141687487504</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3383124376896223</v>
+        <v>0.3385321920567751</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3233755043417079</v>
+        <v>0.3228680650395919</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3092057788744755</v>
+        <v>0.3095886709146562</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2767488012029409</v>
+        <v>0.277146288713232</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3799669929244319</v>
+        <v>0.3780690793489973</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3512364517898185</v>
+        <v>0.3518168905589831</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2950741195091208</v>
+        <v>0.2959302359685319</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4045878954716592</v>
+        <v>0.4060834222805361</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3787028203037276</v>
+        <v>0.3790909986768302</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3338943618818603</v>
+        <v>0.3335521400303301</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2404247837439934</v>
+        <v>0.2401481971050369</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2592265882613503</v>
+        <v>0.2593548981087217</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2463114498739905</v>
+        <v>0.2455825342713981</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3259054693271328</v>
+        <v>0.3269168435941037</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.322865883583975</v>
+        <v>0.322654753155259</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2927199913113854</v>
+        <v>0.294242305251616</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.440038013342917</v>
+        <v>0.4391859405449984</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.413933929762612</v>
+        <v>0.4144648272170601</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3672363941641641</v>
+        <v>0.3672893609873641</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.269910911952388</v>
+        <v>0.2716658587610183</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2911553132794867</v>
+        <v>0.2905662617000394</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.276433537667205</v>
+        <v>0.2774233471219599</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3507953464992103</v>
+        <v>0.3500966841717661</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3462686481416593</v>
+        <v>0.3467405516425792</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3162793045443187</v>
+        <v>0.3168432232446354</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>291092</v>
+        <v>292200</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>244361</v>
+        <v>245827</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>225290</v>
+        <v>225391</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>141434</v>
+        <v>142281</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>139098</v>
+        <v>141000</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>147297</v>
+        <v>148779</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>443622</v>
+        <v>448670</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>397340</v>
+        <v>395704</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>388781</v>
+        <v>387985</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>345960</v>
+        <v>346346</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>298305</v>
+        <v>295887</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>277645</v>
+        <v>275699</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>183873</v>
+        <v>184864</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>185709</v>
+        <v>186175</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>194496</v>
+        <v>193810</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>515180</v>
+        <v>518072</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>470096</v>
+        <v>465774</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>454656</v>
+        <v>454591</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>375047</v>
+        <v>377022</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>373537</v>
+        <v>373560</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>310570</v>
+        <v>308785</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>200548</v>
+        <v>201923</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>261581</v>
+        <v>259100</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>242220</v>
+        <v>242540</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>594331</v>
+        <v>588303</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>650215</v>
+        <v>653785</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>569766</v>
+        <v>564986</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>438600</v>
+        <v>442535</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>438496</v>
+        <v>436861</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>371056</v>
+        <v>372542</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>253041</v>
+        <v>255698</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>320376</v>
+        <v>321217</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>300505</v>
+        <v>300064</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>681938</v>
+        <v>677104</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>742921</v>
+        <v>746006</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>656043</v>
+        <v>652009</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>226620</v>
+        <v>227583</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>286330</v>
+        <v>287030</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>284660</v>
+        <v>285531</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>147769</v>
+        <v>147529</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>202989</v>
+        <v>204123</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>202815</v>
+        <v>202504</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>391837</v>
+        <v>390594</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>503995</v>
+        <v>504613</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>497359</v>
+        <v>501629</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>279349</v>
+        <v>282296</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>342687</v>
+        <v>342474</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>340487</v>
+        <v>340728</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>194321</v>
+        <v>191773</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>258276</v>
+        <v>255690</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>252723</v>
+        <v>250364</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>455371</v>
+        <v>459455</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>580714</v>
+        <v>582589</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>577750</v>
+        <v>581539</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>378198</v>
+        <v>375613</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>336733</v>
+        <v>333993</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>259926</v>
+        <v>260802</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>277138</v>
+        <v>278876</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>265327</v>
+        <v>265308</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>228170</v>
+        <v>231549</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>666624</v>
+        <v>662796</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>615576</v>
+        <v>618811</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>501358</v>
+        <v>502466</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>433850</v>
+        <v>435171</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>400536</v>
+        <v>393799</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>317191</v>
+        <v>317397</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>335862</v>
+        <v>335335</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>324949</v>
+        <v>325351</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>288509</v>
+        <v>288923</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>752652</v>
+        <v>748892</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>702000</v>
+        <v>703160</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>584265</v>
+        <v>585960</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1325228</v>
+        <v>1330127</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1297341</v>
+        <v>1298671</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1132708</v>
+        <v>1131547</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>812443</v>
+        <v>811508</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>921895</v>
+        <v>922351</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>871722</v>
+        <v>869142</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>2168802</v>
+        <v>2175533</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>2254274</v>
+        <v>2252800</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>2028994</v>
+        <v>2039546</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1441345</v>
+        <v>1438554</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1418034</v>
+        <v>1419852</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1245818</v>
+        <v>1245998</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>912082</v>
+        <v>918012</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1035444</v>
+        <v>1033349</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>978327</v>
+        <v>981830</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>2334437</v>
+        <v>2329788</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>2417674</v>
+        <v>2420969</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>2192295</v>
+        <v>2196204</v>
       </c>
     </row>
     <row r="24">
